--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.20972718552071</v>
+        <v>19.63445233333333</v>
       </c>
       <c r="H2">
-        <v>5.20972718552071</v>
+        <v>58.903357</v>
       </c>
       <c r="I2">
-        <v>0.2199848887358726</v>
+        <v>0.5140898498595829</v>
       </c>
       <c r="J2">
-        <v>0.2199848887358726</v>
+        <v>0.5140898498595828</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.374230323117</v>
+        <v>28.01710266666667</v>
       </c>
       <c r="N2">
-        <v>4.374230323117</v>
+        <v>84.05130800000001</v>
       </c>
       <c r="O2">
-        <v>0.1687659344462594</v>
+        <v>0.541609178372911</v>
       </c>
       <c r="P2">
-        <v>0.1687659344462594</v>
+        <v>0.541609178372911</v>
       </c>
       <c r="Q2">
-        <v>22.78854663007167</v>
+        <v>550.100466826773</v>
       </c>
       <c r="R2">
-        <v>22.78854663007167</v>
+        <v>4950.904201440956</v>
       </c>
       <c r="S2">
-        <v>0.03712595531156594</v>
+        <v>0.2784357811923019</v>
       </c>
       <c r="T2">
-        <v>0.03712595531156594</v>
+        <v>0.2784357811923018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.20972718552071</v>
+        <v>19.63445233333333</v>
       </c>
       <c r="H3">
-        <v>5.20972718552071</v>
+        <v>58.903357</v>
       </c>
       <c r="I3">
-        <v>0.2199848887358726</v>
+        <v>0.5140898498595829</v>
       </c>
       <c r="J3">
-        <v>0.2199848887358726</v>
+        <v>0.5140898498595828</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.744271410496767</v>
+        <v>0.9744343333333333</v>
       </c>
       <c r="N3">
-        <v>0.744271410496767</v>
+        <v>2.923303</v>
       </c>
       <c r="O3">
-        <v>0.02871537408771301</v>
+        <v>0.01883715760812509</v>
       </c>
       <c r="P3">
-        <v>0.02871537408771301</v>
+        <v>0.01883715760812509</v>
       </c>
       <c r="Q3">
-        <v>3.877451000670851</v>
+        <v>19.13248446979678</v>
       </c>
       <c r="R3">
-        <v>3.877451000670851</v>
+        <v>172.192360228171</v>
       </c>
       <c r="S3">
-        <v>0.006316948373694506</v>
+        <v>0.00968399152654233</v>
       </c>
       <c r="T3">
-        <v>0.006316948373694506</v>
+        <v>0.009683991526542327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.20972718552071</v>
+        <v>19.63445233333333</v>
       </c>
       <c r="H4">
-        <v>5.20972718552071</v>
+        <v>58.903357</v>
       </c>
       <c r="I4">
-        <v>0.2199848887358726</v>
+        <v>0.5140898498595829</v>
       </c>
       <c r="J4">
-        <v>0.2199848887358726</v>
+        <v>0.5140898498595828</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>20.8004157153925</v>
+        <v>0.07953766666666666</v>
       </c>
       <c r="N4">
-        <v>20.8004157153925</v>
+        <v>0.238613</v>
       </c>
       <c r="O4">
-        <v>0.8025186914660276</v>
+        <v>0.001537572632172427</v>
       </c>
       <c r="P4">
-        <v>0.8025186914660276</v>
+        <v>0.001537572632172427</v>
       </c>
       <c r="Q4">
-        <v>108.3644912226125</v>
+        <v>1.561678524871222</v>
       </c>
       <c r="R4">
-        <v>108.3644912226125</v>
+        <v>14.055106723841</v>
       </c>
       <c r="S4">
-        <v>0.1765419850506122</v>
+        <v>0.0007904504836217268</v>
       </c>
       <c r="T4">
-        <v>0.1765419850506122</v>
+        <v>0.0007904504836217267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.735011019983105</v>
+        <v>19.63445233333333</v>
       </c>
       <c r="H5">
-        <v>0.735011019983105</v>
+        <v>58.903357</v>
       </c>
       <c r="I5">
-        <v>0.03103642699372225</v>
+        <v>0.5140898498595829</v>
       </c>
       <c r="J5">
-        <v>0.03103642699372225</v>
+        <v>0.5140898498595828</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.374230323117</v>
+        <v>22.65829733333333</v>
       </c>
       <c r="N5">
-        <v>4.374230323117</v>
+        <v>67.974892</v>
       </c>
       <c r="O5">
-        <v>0.1687659344462594</v>
+        <v>0.4380160913867915</v>
       </c>
       <c r="P5">
-        <v>0.1687659344462594</v>
+        <v>0.4380160913867915</v>
       </c>
       <c r="Q5">
-        <v>3.215107491435253</v>
+        <v>444.8832589458271</v>
       </c>
       <c r="R5">
-        <v>3.215107491435253</v>
+        <v>4003.949330512444</v>
       </c>
       <c r="S5">
-        <v>0.005237891603468645</v>
+        <v>0.225179626657117</v>
       </c>
       <c r="T5">
-        <v>0.005237891603468645</v>
+        <v>0.2251796266571169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.735011019983105</v>
+        <v>0.736962</v>
       </c>
       <c r="H6">
-        <v>0.735011019983105</v>
+        <v>2.210886</v>
       </c>
       <c r="I6">
-        <v>0.03103642699372225</v>
+        <v>0.01929591299519065</v>
       </c>
       <c r="J6">
-        <v>0.03103642699372225</v>
+        <v>0.01929591299519064</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.744271410496767</v>
+        <v>28.01710266666667</v>
       </c>
       <c r="N6">
-        <v>0.744271410496767</v>
+        <v>84.05130800000001</v>
       </c>
       <c r="O6">
-        <v>0.02871537408771301</v>
+        <v>0.541609178372911</v>
       </c>
       <c r="P6">
-        <v>0.02871537408771301</v>
+        <v>0.541609178372911</v>
       </c>
       <c r="Q6">
-        <v>0.547047688573493</v>
+        <v>20.647540015432</v>
       </c>
       <c r="R6">
-        <v>0.547047688573493</v>
+        <v>185.827860138888</v>
       </c>
       <c r="S6">
-        <v>0.0008912226114707285</v>
+        <v>0.01045084358328038</v>
       </c>
       <c r="T6">
-        <v>0.0008912226114707285</v>
+        <v>0.01045084358328038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.735011019983105</v>
+        <v>0.736962</v>
       </c>
       <c r="H7">
-        <v>0.735011019983105</v>
+        <v>2.210886</v>
       </c>
       <c r="I7">
-        <v>0.03103642699372225</v>
+        <v>0.01929591299519065</v>
       </c>
       <c r="J7">
-        <v>0.03103642699372225</v>
+        <v>0.01929591299519064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.8004157153925</v>
+        <v>0.9744343333333333</v>
       </c>
       <c r="N7">
-        <v>20.8004157153925</v>
+        <v>2.923303</v>
       </c>
       <c r="O7">
-        <v>0.8025186914660276</v>
+        <v>0.01883715760812509</v>
       </c>
       <c r="P7">
-        <v>0.8025186914660276</v>
+        <v>0.01883715760812509</v>
       </c>
       <c r="Q7">
-        <v>15.28853477104325</v>
+        <v>0.718121075162</v>
       </c>
       <c r="R7">
-        <v>15.28853477104325</v>
+        <v>6.463089676457999</v>
       </c>
       <c r="S7">
-        <v>0.02490731277878288</v>
+        <v>0.0003634801542830753</v>
       </c>
       <c r="T7">
-        <v>0.02490731277878288</v>
+        <v>0.0003634801542830753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.131948995654214</v>
+        <v>0.736962</v>
       </c>
       <c r="H8">
-        <v>0.131948995654214</v>
+        <v>2.210886</v>
       </c>
       <c r="I8">
-        <v>0.005571651661237842</v>
+        <v>0.01929591299519065</v>
       </c>
       <c r="J8">
-        <v>0.005571651661237842</v>
+        <v>0.01929591299519064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.374230323117</v>
+        <v>0.07953766666666666</v>
       </c>
       <c r="N8">
-        <v>4.374230323117</v>
+        <v>0.238613</v>
       </c>
       <c r="O8">
-        <v>0.1687659344462594</v>
+        <v>0.001537572632172427</v>
       </c>
       <c r="P8">
-        <v>0.1687659344462594</v>
+        <v>0.001537572632172427</v>
       </c>
       <c r="Q8">
-        <v>0.5771752978954962</v>
+        <v>0.058616237902</v>
       </c>
       <c r="R8">
-        <v>0.5771752978954962</v>
+        <v>0.5275461411179999</v>
       </c>
       <c r="S8">
-        <v>0.0009403049990178577</v>
+        <v>2.966886773418542E-05</v>
       </c>
       <c r="T8">
-        <v>0.0009403049990178577</v>
+        <v>2.966886773418542E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.131948995654214</v>
+        <v>0.736962</v>
       </c>
       <c r="H9">
-        <v>0.131948995654214</v>
+        <v>2.210886</v>
       </c>
       <c r="I9">
-        <v>0.005571651661237842</v>
+        <v>0.01929591299519065</v>
       </c>
       <c r="J9">
-        <v>0.005571651661237842</v>
+        <v>0.01929591299519064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.744271410496767</v>
+        <v>22.65829733333333</v>
       </c>
       <c r="N9">
-        <v>0.744271410496767</v>
+        <v>67.974892</v>
       </c>
       <c r="O9">
-        <v>0.02871537408771301</v>
+        <v>0.4380160913867915</v>
       </c>
       <c r="P9">
-        <v>0.02871537408771301</v>
+        <v>0.4380160913867915</v>
       </c>
       <c r="Q9">
-        <v>0.09820586510919364</v>
+        <v>16.698304119368</v>
       </c>
       <c r="R9">
-        <v>0.09820586510919364</v>
+        <v>150.284737074312</v>
       </c>
       <c r="S9">
-        <v>0.0001599920617388723</v>
+        <v>0.008451920389893003</v>
       </c>
       <c r="T9">
-        <v>0.0001599920617388723</v>
+        <v>0.008451920389893001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.131948995654214</v>
+        <v>0.1783006666666667</v>
       </c>
       <c r="H10">
-        <v>0.131948995654214</v>
+        <v>0.534902</v>
       </c>
       <c r="I10">
-        <v>0.005571651661237842</v>
+        <v>0.004668455294824549</v>
       </c>
       <c r="J10">
-        <v>0.005571651661237842</v>
+        <v>0.004668455294824548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.8004157153925</v>
+        <v>28.01710266666667</v>
       </c>
       <c r="N10">
-        <v>20.8004157153925</v>
+        <v>84.05130800000001</v>
       </c>
       <c r="O10">
-        <v>0.8025186914660276</v>
+        <v>0.541609178372911</v>
       </c>
       <c r="P10">
-        <v>0.8025186914660276</v>
+        <v>0.541609178372911</v>
       </c>
       <c r="Q10">
-        <v>2.74459396283617</v>
+        <v>4.995468083535112</v>
       </c>
       <c r="R10">
-        <v>2.74459396283617</v>
+        <v>44.959212751816</v>
       </c>
       <c r="S10">
-        <v>0.004471354600481111</v>
+        <v>0.00252847823650059</v>
       </c>
       <c r="T10">
-        <v>0.004471354600481111</v>
+        <v>0.002528478236500589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.6055175878074</v>
+        <v>0.1783006666666667</v>
       </c>
       <c r="H11">
-        <v>17.6055175878074</v>
+        <v>0.534902</v>
       </c>
       <c r="I11">
-        <v>0.7434070326091674</v>
+        <v>0.004668455294824549</v>
       </c>
       <c r="J11">
-        <v>0.7434070326091674</v>
+        <v>0.004668455294824548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.374230323117</v>
+        <v>0.9744343333333333</v>
       </c>
       <c r="N11">
-        <v>4.374230323117</v>
+        <v>2.923303</v>
       </c>
       <c r="O11">
-        <v>0.1687659344462594</v>
+        <v>0.01883715760812509</v>
       </c>
       <c r="P11">
-        <v>0.1687659344462594</v>
+        <v>0.01883715760812509</v>
       </c>
       <c r="Q11">
-        <v>77.01058888675679</v>
+        <v>0.1737422912562222</v>
       </c>
       <c r="R11">
-        <v>77.01058888675679</v>
+        <v>1.563680621306</v>
       </c>
       <c r="S11">
-        <v>0.1254617825322069</v>
+        <v>8.794042817509613E-05</v>
       </c>
       <c r="T11">
-        <v>0.1254617825322069</v>
+        <v>8.79404281750961E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.6055175878074</v>
+        <v>0.1783006666666667</v>
       </c>
       <c r="H12">
-        <v>17.6055175878074</v>
+        <v>0.534902</v>
       </c>
       <c r="I12">
-        <v>0.7434070326091674</v>
+        <v>0.004668455294824549</v>
       </c>
       <c r="J12">
-        <v>0.7434070326091674</v>
+        <v>0.004668455294824548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.744271410496767</v>
+        <v>0.07953766666666666</v>
       </c>
       <c r="N12">
-        <v>0.744271410496767</v>
+        <v>0.238613</v>
       </c>
       <c r="O12">
-        <v>0.02871537408771301</v>
+        <v>0.001537572632172427</v>
       </c>
       <c r="P12">
-        <v>0.02871537408771301</v>
+        <v>0.001537572632172427</v>
       </c>
       <c r="Q12">
-        <v>13.10328340760305</v>
+        <v>0.01418161899177778</v>
       </c>
       <c r="R12">
-        <v>13.10328340760305</v>
+        <v>0.127634570926</v>
       </c>
       <c r="S12">
-        <v>0.02134721104080891</v>
+        <v>7.178089095842687E-06</v>
       </c>
       <c r="T12">
-        <v>0.02134721104080891</v>
+        <v>7.178089095842685E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.6055175878074</v>
+        <v>0.1783006666666667</v>
       </c>
       <c r="H13">
-        <v>17.6055175878074</v>
+        <v>0.534902</v>
       </c>
       <c r="I13">
-        <v>0.7434070326091674</v>
+        <v>0.004668455294824549</v>
       </c>
       <c r="J13">
-        <v>0.7434070326091674</v>
+        <v>0.004668455294824548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.8004157153925</v>
+        <v>22.65829733333333</v>
       </c>
       <c r="N13">
-        <v>20.8004157153925</v>
+        <v>67.974892</v>
       </c>
       <c r="O13">
-        <v>0.8025186914660276</v>
+        <v>0.4380160913867915</v>
       </c>
       <c r="P13">
-        <v>0.8025186914660276</v>
+        <v>0.4380160913867915</v>
       </c>
       <c r="Q13">
-        <v>366.2020847110481</v>
+        <v>4.039989520064889</v>
       </c>
       <c r="R13">
-        <v>366.2020847110481</v>
+        <v>36.359905680584</v>
       </c>
       <c r="S13">
-        <v>0.5965980390361515</v>
+        <v>0.002044858541053021</v>
       </c>
       <c r="T13">
-        <v>0.5965980390361515</v>
+        <v>0.00204485854105302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.64293233333333</v>
+      </c>
+      <c r="H14">
+        <v>52.928797</v>
+      </c>
+      <c r="I14">
+        <v>0.461945781850402</v>
+      </c>
+      <c r="J14">
+        <v>0.4619457818504019</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>28.01710266666667</v>
+      </c>
+      <c r="N14">
+        <v>84.05130800000001</v>
+      </c>
+      <c r="O14">
+        <v>0.541609178372911</v>
+      </c>
+      <c r="P14">
+        <v>0.541609178372911</v>
+      </c>
+      <c r="Q14">
+        <v>494.303846524053</v>
+      </c>
+      <c r="R14">
+        <v>4448.734618716477</v>
+      </c>
+      <c r="S14">
+        <v>0.2501940753608282</v>
+      </c>
+      <c r="T14">
+        <v>0.2501940753608282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.64293233333333</v>
+      </c>
+      <c r="H15">
+        <v>52.928797</v>
+      </c>
+      <c r="I15">
+        <v>0.461945781850402</v>
+      </c>
+      <c r="J15">
+        <v>0.4619457818504019</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9744343333333333</v>
+      </c>
+      <c r="N15">
+        <v>2.923303</v>
+      </c>
+      <c r="O15">
+        <v>0.01883715760812509</v>
+      </c>
+      <c r="P15">
+        <v>0.01883715760812509</v>
+      </c>
+      <c r="Q15">
+        <v>17.19187900627678</v>
+      </c>
+      <c r="R15">
+        <v>154.726911056491</v>
+      </c>
+      <c r="S15">
+        <v>0.008701745499124594</v>
+      </c>
+      <c r="T15">
+        <v>0.008701745499124591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.64293233333333</v>
+      </c>
+      <c r="H16">
+        <v>52.928797</v>
+      </c>
+      <c r="I16">
+        <v>0.461945781850402</v>
+      </c>
+      <c r="J16">
+        <v>0.4619457818504019</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07953766666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.238613</v>
+      </c>
+      <c r="O16">
+        <v>0.001537572632172427</v>
+      </c>
+      <c r="P16">
+        <v>0.001537572632172427</v>
+      </c>
+      <c r="Q16">
+        <v>1.403277670951222</v>
+      </c>
+      <c r="R16">
+        <v>12.629499038561</v>
+      </c>
+      <c r="S16">
+        <v>0.0007102751917206723</v>
+      </c>
+      <c r="T16">
+        <v>0.0007102751917206723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.64293233333333</v>
+      </c>
+      <c r="H17">
+        <v>52.928797</v>
+      </c>
+      <c r="I17">
+        <v>0.461945781850402</v>
+      </c>
+      <c r="J17">
+        <v>0.4619457818504019</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.65829733333333</v>
+      </c>
+      <c r="N17">
+        <v>67.974892</v>
+      </c>
+      <c r="O17">
+        <v>0.4380160913867915</v>
+      </c>
+      <c r="P17">
+        <v>0.4380160913867915</v>
+      </c>
+      <c r="Q17">
+        <v>399.7588066405472</v>
+      </c>
+      <c r="R17">
+        <v>3597.829259764924</v>
+      </c>
+      <c r="S17">
+        <v>0.2023396857987285</v>
+      </c>
+      <c r="T17">
+        <v>0.2023396857987285</v>
       </c>
     </row>
   </sheetData>
